--- a/Bidit_Life_data_tracking.xlsx
+++ b/Bidit_Life_data_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIDIT\OneDrive\Documents\Stat-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AAC38CE-3DFC-456B-BB0C-7D2185290562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{272C3566-03C0-4C49-A6D3-179AB69F4469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
@@ -1333,37 +1333,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.4">
